--- a/media/reports/demo.xlsx
+++ b/media/reports/demo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YBEKTAS\Desktop\Python\Projeler\Transformator_Calculate\software\source\GUI\media\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YBEKTAS\Desktop\Python\Projeler\6-Transformator_Project\1-App_Python\GUI\media\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348"/>
   </bookViews>
   <sheets>
     <sheet name="Rapor Sayfası" sheetId="1" r:id="rId1"/>
@@ -581,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -677,25 +677,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -725,26 +743,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1083,13 +1089,13 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
       <c r="I1" s="11"/>
       <c r="J1" s="6" t="s">
         <v>1</v>
@@ -1097,136 +1103,136 @@
       <c r="K1" s="27"/>
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="48"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="50"/>
     </row>
     <row r="2" spans="1:15" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="54"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="G3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="61" t="s">
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="62"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="57"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="63"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
       <c r="G4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="63" t="s">
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="64"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="60"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="66"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
       <c r="G5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="63" t="s">
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="64"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="60"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="66"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="63" t="s">
+      <c r="H6" s="53"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="64"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="60"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="66"/>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
       <c r="G7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="66"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="47"/>
       <c r="L7" s="32"/>
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
@@ -1236,24 +1242,24 @@
       <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="48"/>
-      <c r="I9" s="68" t="s">
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
+      <c r="I9" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="48"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="50"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -1604,14 +1610,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:I7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="B3:F3"/>
@@ -1628,6 +1626,14 @@
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1642,15 +1648,15 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" activeCellId="1" sqref="D1:D1048576 C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1668,10 +1674,10 @@
       <c r="B2" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="70" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="43"/>
@@ -1682,8 +1688,8 @@
         <v>1</v>
       </c>
       <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
     </row>
@@ -1692,8 +1698,8 @@
         <v>2</v>
       </c>
       <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="42"/>
       <c r="F4" s="42"/>
     </row>
@@ -1702,8 +1708,8 @@
         <v>3</v>
       </c>
       <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="42"/>
       <c r="F5" s="42"/>
     </row>
@@ -1712,8 +1718,8 @@
         <v>4</v>
       </c>
       <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
     </row>
@@ -1722,8 +1728,8 @@
         <v>5</v>
       </c>
       <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
       <c r="E7" s="42"/>
       <c r="F7" s="42"/>
     </row>
@@ -1732,8 +1738,8 @@
         <v>6</v>
       </c>
       <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
       <c r="E8" s="42"/>
       <c r="F8" s="42"/>
     </row>
@@ -1742,8 +1748,8 @@
         <v>7</v>
       </c>
       <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
     </row>
@@ -1752,8 +1758,8 @@
         <v>8</v>
       </c>
       <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="42"/>
       <c r="F10" s="42"/>
     </row>
@@ -1762,8 +1768,8 @@
         <v>9</v>
       </c>
       <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
     </row>
@@ -1772,8 +1778,8 @@
         <v>10</v>
       </c>
       <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
       <c r="E12" s="42"/>
       <c r="F12" s="42"/>
     </row>
@@ -1782,8 +1788,8 @@
         <v>11</v>
       </c>
       <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
     </row>
@@ -1792,8 +1798,8 @@
         <v>12</v>
       </c>
       <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
     </row>
@@ -1802,8 +1808,8 @@
         <v>13</v>
       </c>
       <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
     </row>
@@ -1812,8 +1818,8 @@
         <v>14</v>
       </c>
       <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
       <c r="E16" s="42"/>
       <c r="F16" s="42"/>
     </row>
@@ -1822,8 +1828,8 @@
         <v>15</v>
       </c>
       <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
     </row>
@@ -1832,8 +1838,8 @@
         <v>16</v>
       </c>
       <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
     </row>
@@ -1842,8 +1848,8 @@
         <v>17</v>
       </c>
       <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
     </row>
@@ -1852,8 +1858,8 @@
         <v>18</v>
       </c>
       <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
       <c r="E20" s="42"/>
       <c r="F20" s="42"/>
     </row>
@@ -1862,8 +1868,8 @@
         <v>19</v>
       </c>
       <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
       <c r="E21" s="42"/>
       <c r="F21" s="42"/>
     </row>
@@ -1872,8 +1878,8 @@
         <v>20</v>
       </c>
       <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
       <c r="E22" s="42"/>
       <c r="F22" s="42"/>
     </row>
@@ -1882,8 +1888,8 @@
         <v>21</v>
       </c>
       <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
     </row>
@@ -1892,8 +1898,8 @@
         <v>22</v>
       </c>
       <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
       <c r="E24" s="42"/>
       <c r="F24" s="42"/>
     </row>
@@ -1902,8 +1908,8 @@
         <v>23</v>
       </c>
       <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
       <c r="E25" s="42"/>
       <c r="F25" s="42"/>
     </row>
@@ -1912,8 +1918,8 @@
         <v>24</v>
       </c>
       <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
       <c r="E26" s="42"/>
       <c r="F26" s="42"/>
     </row>
@@ -1922,8 +1928,8 @@
         <v>25</v>
       </c>
       <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
       <c r="E27" s="42"/>
       <c r="F27" s="42"/>
     </row>
@@ -1932,8 +1938,8 @@
         <v>26</v>
       </c>
       <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
       <c r="E28" s="42"/>
       <c r="F28" s="42"/>
     </row>
@@ -1942,8 +1948,8 @@
         <v>27</v>
       </c>
       <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
       <c r="E29" s="42"/>
       <c r="F29" s="42"/>
     </row>
@@ -1952,8 +1958,8 @@
         <v>28</v>
       </c>
       <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
       <c r="E30" s="42"/>
       <c r="F30" s="42"/>
     </row>
@@ -1962,8 +1968,8 @@
         <v>29</v>
       </c>
       <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
       <c r="E31" s="42"/>
       <c r="F31" s="42"/>
     </row>
@@ -1972,8 +1978,8 @@
         <v>30</v>
       </c>
       <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
       <c r="E32" s="42"/>
       <c r="F32" s="42"/>
     </row>
@@ -1982,5 +1988,6 @@
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>